--- a/artemisia_data.xlsx
+++ b/artemisia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SimoneBetito/Desktop/Code/artemisia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508E16E-E235-F84E-8E65-C418644E5115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66EA06-2FF3-CD4F-9DC1-51F03506E8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{957814B9-B3EB-EC40-A85C-27EA5D3EA11E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
   <si>
     <t>Picture</t>
   </si>
@@ -278,6 +278,142 @@
   </si>
   <si>
     <t>1640-1645</t>
+  </si>
+  <si>
+    <t>Madonna and Child</t>
+  </si>
+  <si>
+    <t>Galleria delgi Uffizi, Florence, Italy, Inv. 1890 no. 2129</t>
+  </si>
+  <si>
+    <t>118 x 86 cm</t>
+  </si>
+  <si>
+    <t>Jael and Sisera</t>
+  </si>
+  <si>
+    <t>92.3 x 127.5 cm</t>
+  </si>
+  <si>
+    <t>Szépmuvészeti Múzeum (Hungary)</t>
+  </si>
+  <si>
+    <t>St. Catherine of Alexandria</t>
+  </si>
+  <si>
+    <t>Oil on canvas</t>
+  </si>
+  <si>
+    <t>97.8 x 74.9 cm</t>
+  </si>
+  <si>
+    <t>93.5 cm x 114 cm</t>
+  </si>
+  <si>
+    <t>Palazzo Pitti [Pitti Palace], Florence, Tuscany, Italy</t>
+  </si>
+  <si>
+    <t>Portrait of Gonfaloniere</t>
+  </si>
+  <si>
+    <t>208 x 128 cm</t>
+  </si>
+  <si>
+    <t>Bologna (Italy). Collezioni comunali d'arte</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>Clio</t>
+  </si>
+  <si>
+    <t>50x38 3/8"</t>
+  </si>
+  <si>
+    <t>155 x 117 cm</t>
+  </si>
+  <si>
+    <t>Uppsala universitet</t>
+  </si>
+  <si>
+    <t>Saint Cecilia</t>
+  </si>
+  <si>
+    <t>92 x 72 cm</t>
+  </si>
+  <si>
+    <t>Portrait of a Woman Artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98x74cm </t>
+  </si>
+  <si>
+    <t>Galleria nazionale d'arte antica (Italy)</t>
+  </si>
+  <si>
+    <t>28.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Saint Catherine of Alexandria</t>
+  </si>
+  <si>
+    <t>c.1613-20</t>
+  </si>
+  <si>
+    <t>77 x 62 cm</t>
+  </si>
+  <si>
+    <t>Galleria degli Uffizi</t>
+  </si>
+  <si>
+    <t>Mary Magdalen</t>
+  </si>
+  <si>
+    <t>97x79cm</t>
+  </si>
+  <si>
+    <t>Kunsthistorisches Museum Wien</t>
+  </si>
+  <si>
+    <t>Delilah Cutting Samson's Hair</t>
+  </si>
+  <si>
+    <t>Joseph and Potiphar's Wife</t>
+  </si>
+  <si>
+    <t>91.25x76.75"</t>
+  </si>
+  <si>
+    <t>Fogg Art Museum</t>
+  </si>
+  <si>
+    <t>Birth of St. John the Baptist</t>
+  </si>
+  <si>
+    <t>Museo del Prado</t>
+  </si>
+  <si>
+    <t>29.jpg</t>
+  </si>
+  <si>
+    <t>Lute Player</t>
+  </si>
+  <si>
+    <t>108 x 78.5 cm</t>
+  </si>
+  <si>
+    <t>Greek Mythology</t>
+  </si>
+  <si>
+    <t>self-Portrait</t>
+  </si>
+  <si>
+    <t>biblical</t>
+  </si>
+  <si>
+    <t>greek Mythology</t>
   </si>
 </sst>
 </file>
@@ -1637,6 +1773,156 @@
         <a:xfrm>
           <a:off x="1790701" y="45250100"/>
           <a:ext cx="1244600" cy="1656705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2083682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FEE564-2C1A-3148-84BD-10C9A2F91A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="47066200"/>
+          <a:ext cx="1485900" cy="1969382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1729680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1778000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF15CBE-A2DC-064C-BC23-62343B6580E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="49161700"/>
+          <a:ext cx="1234380" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2119167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF75684-E895-7B48-9C9A-5D13B4184513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="50990500"/>
+          <a:ext cx="1485900" cy="2119167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1945,11 +2231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2070246B-C4E9-4C47-BA2F-6E327AC30BC5}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1957,13 +2243,13 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2087,6 +2373,9 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
@@ -2105,8 +2394,23 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" t="s">
         <v>55</v>
+      </c>
+      <c r="G6">
+        <v>1618</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
@@ -2142,6 +2446,9 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
       <c r="F8" t="s">
         <v>65</v>
       </c>
@@ -2168,6 +2475,9 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2191,6 +2501,9 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
@@ -2214,6 +2527,9 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" t="s">
         <v>75</v>
       </c>
@@ -2237,6 +2553,9 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" t="s">
         <v>81</v>
       </c>
@@ -2254,6 +2573,9 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>69</v>
       </c>
@@ -2268,6 +2590,9 @@
       </c>
       <c r="J13" t="s">
         <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="148" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,6 +2602,24 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14">
+        <v>1622</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2285,6 +2628,24 @@
       <c r="C15" t="s">
         <v>20</v>
       </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <v>1620</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2293,6 +2654,9 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2306,21 +2670,39 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
@@ -2331,71 +2713,164 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="152" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <v>1620</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" ht="151" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="151" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2404,6 +2879,81 @@
       </c>
       <c r="D27" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="166" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28">
+        <v>1632</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
